--- a/Assets/ArtRes/Excel/全局配置表.xlsx
+++ b/Assets/ArtRes/Excel/全局配置表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\UnityProject_Github\CIGA2024_Gamejam\Assets\ArtRes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66F0150-8051-4DE1-BCE8-2D0E0FCD647C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD70244-A886-4725-8D15-A71280A8243B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,10 @@
   <si>
     <t>stringValue</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一列往后将不会被读表工具读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -478,7 +482,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,6 +502,9 @@
       <c r="C1" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="D1" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:4" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">

--- a/Assets/ArtRes/Excel/全局配置表.xlsx
+++ b/Assets/ArtRes/Excel/全局配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\UnityProject_Github\CIGA2024_Gamejam\Assets\ArtRes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD70244-A886-4725-8D15-A71280A8243B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFBD9EF-44E9-40EA-B5D0-5EFD858223D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,26 @@
   </si>
   <si>
     <t>这一列往后将不会被读表工具读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要去全局枚举表配置对应ID的枚举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景音乐，填音乐名导stringValue即可，音乐文件放在工程的Resoures/Music/BGM下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一关的名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,13 +123,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -159,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -181,12 +194,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -478,11 +485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -490,39 +497,40 @@
     <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="60.875" customWidth="1"/>
     <col min="4" max="4" width="98.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="108.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -535,104 +543,32 @@
       <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="2:4" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
